--- a/biology/Botanique/Glaucocystis_nostochinearum/Glaucocystis_nostochinearum.xlsx
+++ b/biology/Botanique/Glaucocystis_nostochinearum/Glaucocystis_nostochinearum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucocystis nostochinearum est une espèce d'algues de la famille des Glaucocystaceae, de l'embranchement des Glaucophyta. 
 Glaucocystis nostochinearum est l'espèce type du genre Glaucocystis. 
@@ -512,9 +524,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (21 juil. 2012)[1], Glaucocystis geitleri Pringsheim 1964 est un synonyme hétérotypique. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (21 juil. 2012), Glaucocystis geitleri Pringsheim 1964 est un synonyme hétérotypique. 
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 août 2013)[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 août 2013) : 
 variété Glaucocystis nostochinearum var. minor Hansgirg
 variété Glaucocystis nostochinearum var. moebii Gutwinski
 variété Glaucocystis nostochinearum var. incrassata Lemmermann
 forme Glaucocystis nostochinearum f. immanis Schmidle
 variété Glaucocystis nostochinearum var. gigas Gutwinski
-Selon World Register of Marine Species                               (2 août 2013)[3] :
+Selon World Register of Marine Species                               (2 août 2013) :
 forme Glaucocystis nostochinearum f. immanis Schmidle, 1902
 variété Glaucocystis nostochinearum var. incrassata Lemmermann, 1908
 variété Glaucocystis nostochinearum var. moebii Gutwinski, 1901</t>
